--- a/第03组/第三组项目计划表.xlsx
+++ b/第03组/第三组项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -63,19 +63,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成注册、登录功能的用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成个人信息维护的用例约束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成所有UI设计、确定功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成所有UI设计、确定功能</t>
+    <t>分析对象、确定对象用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户忘记密码用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画管路员用例分析图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画普通用户用例分析图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -520,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -530,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -540,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/第03组/第三组项目计划表.xlsx
+++ b/第03组/第三组项目计划表.xlsx
@@ -63,27 +63,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分析对象、确定对象用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户忘记密码用例的分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>画管路员用例分析图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>画普通用户用例分析图</t>
+    <t>1.熟悉需求规格说明书，2.分析对象、确定对象用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.画管路员用例分析图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.画普通用户用例分析图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户登录用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户注册用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉需求规格说明书，2.完成用户忘记密码用例的分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>

--- a/第03组/第三组项目计划表.xlsx
+++ b/第03组/第三组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -84,6 +84,17 @@
   </si>
   <si>
     <t>1.熟悉需求规格说明书，2.完成用户忘记密码用例的分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,12 +482,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
@@ -510,7 +521,9 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -520,7 +533,9 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -530,7 +545,9 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -540,7 +557,9 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -550,7 +569,9 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -560,7 +581,9 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
